--- a/FA22 Roster.xlsx
+++ b/FA22 Roster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burni\Downloads\drive-download-20221009T041449Z-001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burni\Downloads\Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41607ED-B4C4-4AAC-AC33-B166CC35785C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AC114-804B-47B9-B7C3-C58B53212908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="4395" windowWidth="38700" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECE5_StudentRoster_092322" sheetId="1" r:id="rId1"/>
@@ -2411,22 +2411,22 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H183" sqref="H183"/>
+      <selection pane="bottomRight" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="23.09765625" customWidth="1"/>
     <col min="9" max="24" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4997,7 +4997,7 @@
         <v>404</v>
       </c>
       <c r="E101" s="2">
-        <v>21822060874510</v>
+        <v>21822060907922</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>12</v>
